--- a/data/case1/9/Q2_14.xlsx
+++ b/data/case1/9/Q2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.30503501769806007</v>
+        <v>0.25132410141365114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999448585584</v>
+        <v>-0.0059999999455797592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999435700317</v>
+        <v>-0.048240474631315422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.007999999902619237</v>
+        <v>-0.007999999903152144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999389813681</v>
+        <v>-0.041065185645638103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999928088414</v>
+        <v>-0.0019999999344744168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999858833597</v>
+        <v>-0.0099999998644779708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998580386773</v>
+        <v>-0.0099999998612445573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999268822677</v>
+        <v>-0.0019999999261806067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999275519542</v>
+        <v>-0.0019999999230826404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999190106763</v>
+        <v>-0.0029999999145431389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.003499999915176133</v>
+        <v>-0.0034999999096547718</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.003499999918138208</v>
+        <v>-0.0034999999074241117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998808544248</v>
+        <v>-0.0079999998684234797</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999994299526662</v>
+        <v>0.01155421620731456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999374116229</v>
+        <v>-0.0019999999187887418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999435373894</v>
+        <v>-0.0019999999172926053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.030643015352487701</v>
+        <v>-0.003999999899774842</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999606639136</v>
+        <v>-0.003999999962388312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999462914104</v>
+        <v>-0.0039999999595714542</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0440820036243883</v>
+        <v>-0.0039999999591309177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.012779116578673921</v>
+        <v>-0.0039999999587747581</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.05707205410338112</v>
+        <v>-0.0049999999329992662</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999794624301</v>
+        <v>-0.019999999798737456</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999791981082</v>
+        <v>-0.019999999796017853</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999213477508</v>
+        <v>-0.0024999999296415609</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999175014942</v>
+        <v>-0.0024999999284989194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.00199999990253108</v>
+        <v>-0.0019999999260846835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998471752534</v>
+        <v>-0.0069999998788397022</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999386752378</v>
+        <v>-0.0599999994238547</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998369176808</v>
+        <v>-0.0069999998818328635</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998104962629</v>
+        <v>0.043824049712224422</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998617101795</v>
+        <v>-0.0039999999092437122</v>
       </c>
     </row>
   </sheetData>
